--- a/excel/Ejercicio_clase_13_Ventas_del_año.xlsx
+++ b/excel/Ejercicio_clase_13_Ventas_del_año.xlsx
@@ -8,22 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blanc\github\microsoft\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{655EB6B2-CCFB-4FC0-B284-61656CF769B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F2CE9DC-2612-44E5-B70A-8C41329D21B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="1" activeTab="2" xr2:uid="{62DEE931-8AC8-4954-A7A9-883E10260878}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="16305" firstSheet="1" activeTab="3" xr2:uid="{62DEE931-8AC8-4954-A7A9-883E10260878}"/>
   </bookViews>
   <sheets>
     <sheet name="Ventas diarias" sheetId="1" r:id="rId1"/>
     <sheet name="Ventas por mes" sheetId="3" r:id="rId2"/>
     <sheet name="Ventas por vendedor" sheetId="5" r:id="rId3"/>
-    <sheet name="Ventas diarias_ (2)" sheetId="2" state="hidden" r:id="rId4"/>
+    <sheet name="Hoja1" sheetId="6" r:id="rId4"/>
+    <sheet name="Ventas diarias_ (2)" sheetId="2" state="hidden" r:id="rId5"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId5"/>
+    <externalReference r:id="rId6"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Ventas diarias'!$B$2:$D$153</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Ventas diarias_ (2)'!$B$2:$J$153</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Ventas diarias_ (2)'!$B$2:$J$153</definedName>
     <definedName name="JR_PAGE_ANCHOR_0_1">[1]Ventas!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -38,7 +39,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -348,7 +348,7 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -380,9 +380,6 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -838,7 +835,7 @@
       </c>
       <c r="K3" s="9">
         <f ca="1">TODAY()</f>
-        <v>45042</v>
+        <v>45043</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
@@ -5689,16 +5686,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D176C4F2-23F3-4C41-8542-251DA60269F7}">
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:F7"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.5703125" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="11.140625" customWidth="1"/>
     <col min="5" max="6" width="15.42578125" customWidth="1"/>
     <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1"/>
@@ -5774,14 +5771,14 @@
       <c r="C3" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="17">
-        <v>1</v>
-      </c>
-      <c r="E3" s="17" t="str">
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3" t="str">
         <f>TEXT(D3,"00")</f>
         <v>01</v>
       </c>
-      <c r="F3" s="17" t="str">
+      <c r="F3" s="3" t="str">
         <f>_xlfn.CONCAT(C3, " - ",E3, "-",H3)</f>
         <v xml:space="preserve">V - 01- Juan Lopez   </v>
       </c>
@@ -5823,14 +5820,14 @@
       <c r="C4" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D4" s="3">
         <v>2</v>
       </c>
-      <c r="E4" s="17" t="str">
+      <c r="E4" s="3" t="str">
         <f t="shared" ref="E4:E7" si="0">TEXT(D4,"00")</f>
         <v>02</v>
       </c>
-      <c r="F4" s="17" t="str">
+      <c r="F4" s="3" t="str">
         <f>C4&amp;"-"&amp;E4&amp;"-"&amp;H4</f>
         <v>V-02-Maria González</v>
       </c>
@@ -5872,14 +5869,14 @@
       <c r="C5" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="3">
         <v>3</v>
       </c>
-      <c r="E5" s="17" t="str">
+      <c r="E5" s="3" t="str">
         <f t="shared" si="0"/>
         <v>03</v>
       </c>
-      <c r="F5" s="17" t="str">
+      <c r="F5" s="3" t="str">
         <f t="shared" ref="F5:F7" si="3">C5&amp;"-"&amp;E5&amp;"-"&amp;H5</f>
         <v>V-03-Sandra Blanco</v>
       </c>
@@ -5921,14 +5918,14 @@
       <c r="C6" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="3">
         <v>4</v>
       </c>
-      <c r="E6" s="17" t="str">
+      <c r="E6" s="3" t="str">
         <f t="shared" si="0"/>
         <v>04</v>
       </c>
-      <c r="F6" s="17" t="str">
+      <c r="F6" s="3" t="str">
         <f t="shared" si="3"/>
         <v>V-04-Jose Romero</v>
       </c>
@@ -5970,14 +5967,14 @@
       <c r="C7" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D7" s="17">
-        <v>5</v>
-      </c>
-      <c r="E7" s="17" t="str">
+      <c r="D7" s="3">
+        <v>5</v>
+      </c>
+      <c r="E7" s="3" t="str">
         <f t="shared" si="0"/>
         <v>05</v>
       </c>
-      <c r="F7" s="17" t="str">
+      <c r="F7" s="3" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">V-05- Roberto Martinez </v>
       </c>
@@ -6010,6 +6007,12 @@
       <c r="O7" s="10">
         <f t="shared" si="4"/>
         <v>25580</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <f ca="1">RANDBETWEEN(1,5)</f>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -6020,6 +6023,89 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DC3E037-73AB-4FC5-B204-DCE3700F8E30}">
+  <dimension ref="C1:E11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C2" cm="1">
+        <f t="array" ref="C2:C11">_xlfn.SEQUENCE(10)</f>
+        <v>1</v>
+      </c>
+      <c r="D2" t="b">
+        <f>C2=C3</f>
+        <v>0</v>
+      </c>
+      <c r="E2" t="b">
+        <f>AND(C1=C2,C2=C3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="E3" t="b">
+        <f>AND(C2=C3,C3=C4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C173A3C3-1BC5-43C0-9043-5E5D709C3387}">
   <dimension ref="B2:L153"/>
   <sheetViews>
